--- a/pred_ohlcv/54_21/2019-10-27 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 DVP ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>7913480.168225524</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8696858.452607006</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>8187979.137511592</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>8187979.137511592</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>7091976.927111592</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7764196.797911592</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>8987153.686011592</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>7181865.209937517</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>7183270.034037516</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>7185842.034037516</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>7185842.034037516</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>7403049.888937516</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>7197218.157837516</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>7197218.157837516</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>7261694.506868708</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6989687.350468708</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5379769.062468708</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5684693.226768709</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6030186.412068709</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6030186.412068709</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5753601.388868709</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5753601.388868709</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5753601.388868709</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5321373.31786871</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5390614.28856871</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5135788.24616871</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5184849.29566871</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4948259.70846871</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4948259.70846871</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3460234.60416871</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3730266.829368711</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1091175.374935376</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>136025.1299353756</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-9874.112764624413</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>60350.31733537558</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-46605.48846462442</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-46585.48846462442</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-46565.48846462442</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-112238.3216646244</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-97451.56426462442</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-97251.56426462442</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-82581.90136462443</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>171760.9837353756</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>150627.4195353756</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>132895.3465353756</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>134819.6686353756</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>134819.6686353756</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>115272.5318353756</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>125448.9963353756</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>125448.9963353756</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>125458.9963353756</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>166142.4001353756</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>83037.42743537558</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>83137.42743537558</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-40533.96206462441</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-63409.05036462442</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-290568.1696646244</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>494735.8396353757</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>5978937.16713136</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>5978937.16713136</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>6581221.454381802</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>5098371.765781802</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>5098371.765781802</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>3177928.177981802</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>4139878.150980894</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>4206445.698580894</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>4206445.698580894</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>4446999.833481803</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>4446999.833481803</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>3970845.948781803</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>3651134.246081803</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>3651145.246081803</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>3112527.708181803</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>3112527.708181803</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>3051385.476381803</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>11424942.90274519</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>11424942.90274519</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>9339015.459945193</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>9339015.459945193</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>10177213.08874519</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>9814540.570445191</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>8993722.67074519</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>9098571.05384519</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>9098571.05384519</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>8912670.96144519</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>7747117.93644519</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>7751120.53004519</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>7751120.53004519</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>7751120.53004519</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>7751158.47704519</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>7751158.47704519</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>7751409.98964519</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>7346595.19034519</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>7055223.55764519</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>7055195.18704519</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>6953774.76484519</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>6953774.76484519</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>6584137.653145189</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>6833282.670345189</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>6833282.670345189</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>6889490.205645189</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>6882053.607245189</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>6790607.215245189</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>6967416.786645189</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>6967416.786645189</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>6967416.786645189</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>6517933.156045189</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 DVP ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>7913480.168225524</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8696858.452607006</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>8187979.137511592</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>8187979.137511592</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>7091976.927111592</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7764196.797911592</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>8987153.686011592</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>7181865.209937517</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>7183270.034037516</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>7185842.034037516</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>7185842.034037516</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>7403049.888937516</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>7197218.157837516</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>7197218.157837516</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>7261694.506868708</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6989687.350468708</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5379769.062468708</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5684693.226768709</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6030186.412068709</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6030186.412068709</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5753601.388868709</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5753601.388868709</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5753601.388868709</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5321373.31786871</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5390614.28856871</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5135788.24616871</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5184849.29566871</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4948259.70846871</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4948259.70846871</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3460234.60416871</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3730266.829368711</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1091175.374935376</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>136025.1299353756</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-9874.112764624413</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>20145.88723537559</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>20145.88723537559</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>60350.31733537558</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>134819.6686353756</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>134819.6686353756</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>115272.5318353756</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>125448.9963353756</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>125448.9963353756</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>125458.9963353756</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>166142.4001353756</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>120095.5424353756</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>83037.42743537558</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>83137.42743537558</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-40533.96206462441</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-63419.05036462442</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-172893.2052646244</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>494735.8396353757</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>822805.1411353757</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>5978937.16713136</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>5978937.16713136</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>6581221.454381802</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>5098371.765781802</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>5098371.765781802</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>3177928.177981802</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>4139878.150980894</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>4206445.698580894</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>4206445.698580894</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>4446999.833481803</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>4446999.833481803</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>3970845.948781803</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>3651134.246081803</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>3651145.246081803</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>3112527.708181803</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>3112527.708181803</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>3051385.476381803</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>11424942.90274519</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>11424942.90274519</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>9339015.459945193</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>9339015.459945193</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>9814540.570445191</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>8993722.67074519</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>9098571.05384519</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>9098571.05384519</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>8912670.96144519</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>7747117.93644519</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>7751120.53004519</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>7751120.53004519</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>7751158.47704519</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>7751158.47704519</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>7751409.98964519</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>7346595.19034519</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>6882053.607245189</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>6790607.215245189</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>6517933.156045189</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
